--- a/Excel/Language/Language_SS@c_20001.xlsx
+++ b/Excel/Language/Language_SS@c_20001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1"/>
+    <workbookView windowHeight="17775" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="SS" sheetId="3" r:id="rId1"/>
@@ -450,23 +450,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,7 +580,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,34 +592,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,7 +711,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,7 +723,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3333,7 +3321,7 @@
   <dimension ref="C2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3401,14 +3389,14 @@
       <c r="C6" s="1">
         <v>20001</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>VLOOKUP(F:F,[1]Color!$A:$B,2,FALSE)</f>
         <v>2a2a2a</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3416,14 +3404,14 @@
       <c r="C7" s="1">
         <v>20002</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>VLOOKUP(F:F,[1]Color!$A:$B,2,FALSE)</f>
         <v>2a2a2a</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3431,19 +3419,20 @@
       <c r="C8" s="1">
         <v>20003</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1" t="str">
         <f>VLOOKUP(F:F,[1]Color!$A:$B,2,FALSE)</f>
         <v>ffffff</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:6">
       <c r="C9" s="1">
         <v>20004</v>
       </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1">
